--- a/config/normalconfig/批量生成xml_Excel模板.xlsx
+++ b/config/normalconfig/批量生成xml_Excel模板.xlsx
@@ -17,25 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值</t>
+    <t>参数值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注：若只有一个参数值，请将“参数值2”这一整列删掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +53,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -71,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -119,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,6 +441,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
